--- a/obesity/Illinois.xlsx
+++ b/obesity/Illinois.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\OBPREV2013\compliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/obesity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB224590-EF2A-8647-998C-EAE97CCA32B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Illinois" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Illinois!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="222">
   <si>
     <t>Obesity Prevalence</t>
   </si>
@@ -671,11 +679,29 @@
   <si>
     <t>Woodford County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1386,7 +1412,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1448,58 +1474,64 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1776,93 +1808,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU106"/>
+  <dimension ref="A2:CB106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BZ12" sqref="BZ12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:80" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:80" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20"/>
@@ -1956,9 +1990,27 @@
       <c r="BR3" s="19"/>
       <c r="BS3" s="19"/>
       <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BU3" s="21"/>
+      <c r="BW3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2178,8 +2230,31 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="23">
+        <f>SUM(D5:D300)</f>
+        <v>2078459</v>
+      </c>
+      <c r="BY4" s="23">
+        <f>AVERAGE(E5:E300)</f>
+        <v>24.220588235294112</v>
+      </c>
+      <c r="BZ4" s="23">
+        <f>AVERAGE(F5:F300)</f>
+        <v>19.959803921568625</v>
+      </c>
+      <c r="CA4" s="23">
+        <f>AVERAGE(G5:G300)</f>
+        <v>29.141176470588224</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>8581372.920461446</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2399,8 +2474,31 @@
       <c r="BU5" s="11">
         <v>43</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>2186295</v>
+      </c>
+      <c r="BY5" s="23">
+        <f>AVERAGE(L5:L300)</f>
+        <v>25.344117647058823</v>
+      </c>
+      <c r="BZ5" s="23">
+        <f>AVERAGE(M5:M300)</f>
+        <v>20.972549019607833</v>
+      </c>
+      <c r="CA5" s="23">
+        <f>AVERAGE(N5:N300)</f>
+        <v>30.407843137254904</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>8626439.5961471517</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2620,8 +2718,31 @@
       <c r="BU6" s="11">
         <v>35.6</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="23">
+        <f>SUM(R5:R300)</f>
+        <v>2291862.1</v>
+      </c>
+      <c r="BY6" s="23">
+        <f>AVERAGE(S5:S300)</f>
+        <v>26.439215686274508</v>
+      </c>
+      <c r="BZ6" s="23">
+        <f>AVERAGE(T5:T300)</f>
+        <v>22.162745098039213</v>
+      </c>
+      <c r="CA6" s="23">
+        <f>AVERAGE(U5:U300)</f>
+        <v>31.332352941176463</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>8668419.3933550883</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2841,8 +2962,31 @@
       <c r="BU7" s="11">
         <v>37.700000000000003</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="23">
+        <f>SUM(Y5:Y300)</f>
+        <v>2340921.9000000004</v>
+      </c>
+      <c r="BY7" s="23">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>27.058823529411764</v>
+      </c>
+      <c r="BZ7" s="23">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>22.704901960784319</v>
+      </c>
+      <c r="CA7" s="23">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>32.05098039215688</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>8651233.1086956542</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3062,8 +3206,31 @@
       <c r="BU8" s="11">
         <v>40.799999999999997</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>2448120.9</v>
+      </c>
+      <c r="BY8" s="23">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>27.295098039215684</v>
+      </c>
+      <c r="BZ8" s="23">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>22.906862745098042</v>
+      </c>
+      <c r="CA8" s="23">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>32.337254901960812</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>8969086.3043712508</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3283,8 +3450,31 @@
       <c r="BU9" s="11">
         <v>35.9</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="23">
+        <f>SUM(AM5:AM300)</f>
+        <v>2552640</v>
+      </c>
+      <c r="BY9" s="23">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>29.13235294117646</v>
+      </c>
+      <c r="BZ9" s="23">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>23.033333333333331</v>
+      </c>
+      <c r="CA9" s="23">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>35.859803921568627</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>8762217.0620898567</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3504,8 +3694,31 @@
       <c r="BU10" s="11">
         <v>35.299999999999997</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="23">
+        <f>SUM(AT5:AT300)</f>
+        <v>2590658</v>
+      </c>
+      <c r="BY10" s="23">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>29.863725490196078</v>
+      </c>
+      <c r="BZ10" s="23">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>23.660784313725486</v>
+      </c>
+      <c r="CA10" s="23">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>36.714705882352959</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>8674932.4053708017</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3725,8 +3938,31 @@
       <c r="BU11" s="11">
         <v>36.299999999999997</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>2570234</v>
+      </c>
+      <c r="BY11" s="23">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>30.6</v>
+      </c>
+      <c r="BZ11" s="23">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>24.135294117647053</v>
+      </c>
+      <c r="CA11" s="23">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>37.725490196078425</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>8399457.5163398683</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3946,8 +4182,31 @@
       <c r="BU12" s="11">
         <v>36</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="23">
+        <f>SUM(BH5:BH300)</f>
+        <v>2592853</v>
+      </c>
+      <c r="BY12" s="23">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>30.952941176470592</v>
+      </c>
+      <c r="BZ12" s="23">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>24.593137254901961</v>
+      </c>
+      <c r="CA12" s="23">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>37.957843137254912</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>8376758.0767768901</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4167,8 +4426,31 @@
       <c r="BU13" s="11">
         <v>35.700000000000003</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="23">
+        <f>SUM(BO5:BO300)</f>
+        <v>2600939</v>
+      </c>
+      <c r="BY13" s="23">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>29.897029702970286</v>
+      </c>
+      <c r="BZ13" s="23">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>23.593069306930683</v>
+      </c>
+      <c r="CA13" s="23">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>36.84455445544554</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>8699656.8750827964</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4671,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4610,7 +4892,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4831,7 +5113,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5334,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5273,7 +5555,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5494,7 +5776,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5715,7 +5997,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -5936,7 +6218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -6157,7 +6439,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6378,7 +6660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6599,7 +6881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -6820,7 +7102,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -7041,7 +7323,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7262,7 +7544,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7483,7 +7765,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7704,7 +7986,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -7925,7 +8207,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -8146,7 +8428,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8367,7 +8649,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8588,7 +8870,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -8809,7 +9091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -9030,7 +9312,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9251,7 +9533,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9472,7 +9754,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9693,7 +9975,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -9914,7 +10196,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -10135,7 +10417,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10356,7 +10638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10577,7 +10859,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10798,7 +11080,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -11019,7 +11301,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11240,7 +11522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11461,7 +11743,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11682,7 +11964,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -11903,7 +12185,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -12124,7 +12406,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12345,7 +12627,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12566,7 +12848,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12787,7 +13069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -13008,7 +13290,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -13229,7 +13511,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13450,7 +13732,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13671,7 +13953,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -13892,7 +14174,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -14113,7 +14395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14334,7 +14616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14555,7 +14837,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14776,7 +15058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -14997,7 +15279,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -15218,7 +15500,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15439,7 +15721,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -15660,7 +15942,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -15881,7 +16163,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -16102,7 +16384,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -16323,7 +16605,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -16544,7 +16826,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -16765,7 +17047,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
@@ -16986,7 +17268,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -17207,7 +17489,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
@@ -17428,7 +17710,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -17649,7 +17931,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
@@ -17870,7 +18152,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -18091,7 +18373,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -18312,7 +18594,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
@@ -18533,7 +18815,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -18754,7 +19036,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
@@ -18975,7 +19257,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
@@ -19196,7 +19478,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
@@ -19417,7 +19699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
@@ -19638,7 +19920,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -19859,7 +20141,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>11</v>
       </c>
@@ -20080,7 +20362,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
@@ -20301,7 +20583,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -20522,7 +20804,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>11</v>
       </c>
@@ -20743,7 +21025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -20964,7 +21246,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>11</v>
       </c>
@@ -21185,7 +21467,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -21406,7 +21688,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -21627,7 +21909,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
@@ -21848,7 +22130,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="94" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>11</v>
       </c>
@@ -22069,7 +22351,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>11</v>
       </c>
@@ -22290,7 +22572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>11</v>
       </c>
@@ -22511,7 +22793,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="97" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -22732,7 +23014,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
         <v>11</v>
       </c>
@@ -22953,7 +23235,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
@@ -23174,7 +23456,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="100" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>11</v>
       </c>
@@ -23395,7 +23677,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="101" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>11</v>
       </c>
@@ -23616,7 +23898,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="102" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
         <v>11</v>
       </c>
@@ -23837,7 +24119,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>11</v>
       </c>
@@ -24058,7 +24340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
         <v>11</v>
       </c>
@@ -24279,7 +24561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
         <v>11</v>
       </c>
@@ -24500,7 +24782,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>11</v>
       </c>
@@ -24723,17 +25005,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="BO3:BU3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
